--- a/191007_Deuterium_Transfer_Peak_Areas.xlsx
+++ b/191007_Deuterium_Transfer_Peak_Areas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Documents\Parker_research\GCMS_Stuff\191007\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017A9BEE-07BA-45DC-B87D-6B7C06262AC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2A6AAB-2FF9-4E77-B4C1-9E178F5A40FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4510" yWindow="7430" windowWidth="32550" windowHeight="15140" xr2:uid="{0C4FD04D-EEC1-4A1F-94F8-64C84F3860BB}"/>
+    <workbookView xWindow="19250" yWindow="170" windowWidth="18930" windowHeight="20190" xr2:uid="{0C4FD04D-EEC1-4A1F-94F8-64C84F3860BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="28">
   <si>
     <t>Species</t>
   </si>
@@ -93,9 +93,6 @@
     <t>#Type refers to deuterium labelled ants (L) vs unlabelled ants (U)</t>
   </si>
   <si>
-    <t>#Outlier: Beetle or ant crushed/Beetle or ant escaped from well/Ant not coated in any CHCs (Y), Beetle chomped (B), ant chomped (A), normal run (N)</t>
-  </si>
-  <si>
     <t>#GCMS data for experiment recorded on 191003</t>
   </si>
   <si>
@@ -112,6 +109,12 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>#Outlier: Beetle or ant crushed/Beetle or ant escaped from well/Ant not coated in any CHCs (Y), Beetle chomped (B), ant chomped (A), ant injured from the beginning(I) , normal run (N)</t>
   </si>
 </sst>
 </file>
@@ -466,14 +469,14 @@
   <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:L16"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -483,7 +486,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
@@ -524,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="M4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" t="s">
         <v>22</v>
-      </c>
-      <c r="N4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
@@ -571,7 +574,7 @@
         <v>12</v>
       </c>
       <c r="N5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
@@ -615,7 +618,7 @@
         <v>12</v>
       </c>
       <c r="N6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -659,7 +662,7 @@
         <v>12</v>
       </c>
       <c r="N7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
@@ -703,7 +706,7 @@
         <v>12</v>
       </c>
       <c r="N8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
@@ -747,7 +750,7 @@
         <v>12</v>
       </c>
       <c r="N9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
@@ -791,7 +794,7 @@
         <v>12</v>
       </c>
       <c r="N10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
@@ -832,10 +835,10 @@
         <v>0.95</v>
       </c>
       <c r="M11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
@@ -876,10 +879,10 @@
         <v>1.59</v>
       </c>
       <c r="M12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
@@ -920,10 +923,10 @@
         <v>1.08</v>
       </c>
       <c r="M13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
@@ -964,10 +967,10 @@
         <v>0.97</v>
       </c>
       <c r="M14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
@@ -1008,10 +1011,10 @@
         <v>1.8</v>
       </c>
       <c r="M15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
@@ -1052,10 +1055,10 @@
         <v>1.39</v>
       </c>
       <c r="M16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
@@ -1096,10 +1099,10 @@
         <v>0.99</v>
       </c>
       <c r="M17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
@@ -1140,10 +1143,10 @@
         <v>1.56</v>
       </c>
       <c r="M18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
@@ -1184,10 +1187,10 @@
         <v>1.05</v>
       </c>
       <c r="M19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
@@ -1228,10 +1231,10 @@
         <v>0.99</v>
       </c>
       <c r="M20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
@@ -1272,10 +1275,10 @@
         <v>2.13</v>
       </c>
       <c r="M21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
@@ -1316,10 +1319,10 @@
         <v>0.7</v>
       </c>
       <c r="M22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
@@ -1363,7 +1366,7 @@
         <v>12</v>
       </c>
       <c r="N23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
@@ -1407,7 +1410,7 @@
         <v>12</v>
       </c>
       <c r="N24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
@@ -1451,7 +1454,7 @@
         <v>12</v>
       </c>
       <c r="N25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
@@ -1495,7 +1498,7 @@
         <v>12</v>
       </c>
       <c r="N26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
@@ -1539,7 +1542,7 @@
         <v>12</v>
       </c>
       <c r="N27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
@@ -1583,7 +1586,7 @@
         <v>12</v>
       </c>
       <c r="N28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
@@ -1624,10 +1627,10 @@
         <v>0.98</v>
       </c>
       <c r="M29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
@@ -1668,10 +1671,10 @@
         <v>1.63</v>
       </c>
       <c r="M30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
@@ -1712,10 +1715,10 @@
         <v>1.07</v>
       </c>
       <c r="M31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
@@ -1756,10 +1759,10 @@
         <v>1.01</v>
       </c>
       <c r="M32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
@@ -1800,10 +1803,10 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="M33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
@@ -1844,10 +1847,10 @@
         <v>0.95</v>
       </c>
       <c r="M34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
@@ -1891,7 +1894,7 @@
         <v>12</v>
       </c>
       <c r="N35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
@@ -1935,7 +1938,7 @@
         <v>12</v>
       </c>
       <c r="N36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
@@ -1979,7 +1982,7 @@
         <v>12</v>
       </c>
       <c r="N37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
@@ -2023,7 +2026,7 @@
         <v>12</v>
       </c>
       <c r="N38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
@@ -2067,7 +2070,7 @@
         <v>12</v>
       </c>
       <c r="N39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
@@ -2111,7 +2114,7 @@
         <v>12</v>
       </c>
       <c r="N40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
@@ -2155,7 +2158,7 @@
         <v>12</v>
       </c>
       <c r="N41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
@@ -2199,7 +2202,7 @@
         <v>12</v>
       </c>
       <c r="N42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
@@ -2243,7 +2246,7 @@
         <v>12</v>
       </c>
       <c r="N43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
@@ -2287,7 +2290,7 @@
         <v>12</v>
       </c>
       <c r="N44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
@@ -2331,7 +2334,7 @@
         <v>12</v>
       </c>
       <c r="N45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
@@ -2375,7 +2378,7 @@
         <v>12</v>
       </c>
       <c r="N46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
@@ -2416,10 +2419,10 @@
         <v>0.95</v>
       </c>
       <c r="M47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N47" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
@@ -2460,10 +2463,10 @@
         <v>2.27</v>
       </c>
       <c r="M48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N48" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
@@ -2504,10 +2507,10 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="M49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N49" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
@@ -2548,10 +2551,10 @@
         <v>0.97</v>
       </c>
       <c r="M50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N50" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
@@ -2592,10 +2595,10 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="M51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N51" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
@@ -2636,10 +2639,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="M52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N52" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/191007_Deuterium_Transfer_Peak_Areas.xlsx
+++ b/191007_Deuterium_Transfer_Peak_Areas.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Documents\Parker_research\GCMS_Stuff\191007\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TomNaragon/Desktop/Parker_Research/DCHC_transfer_Experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2A6AAB-2FF9-4E77-B4C1-9E178F5A40FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19250" yWindow="170" windowWidth="18930" windowHeight="20190" xr2:uid="{0C4FD04D-EEC1-4A1F-94F8-64C84F3860BB}"/>
+    <workbookView xWindow="260" yWindow="460" windowWidth="28800" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -120,7 +125,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -465,31 +470,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9318726-D8BA-4845-AE33-2EE2376C2E04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -533,7 +538,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -577,7 +582,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -621,7 +626,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -665,7 +670,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -709,7 +714,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -753,7 +758,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -797,7 +802,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -841,7 +846,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -885,7 +890,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -929,7 +934,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -973,7 +978,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1017,7 +1022,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1061,7 +1066,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1105,7 +1110,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1149,7 +1154,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -1193,7 +1198,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1237,7 +1242,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1281,7 +1286,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1325,7 +1330,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1369,7 +1374,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1413,7 +1418,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1457,7 +1462,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1501,7 +1506,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -1545,7 +1550,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -1589,7 +1594,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1633,7 +1638,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -1677,7 +1682,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -1721,7 +1726,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -1765,7 +1770,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -1809,7 +1814,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -1853,7 +1858,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -1897,7 +1902,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -1941,7 +1946,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -1985,7 +1990,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -2029,7 +2034,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -2073,7 +2078,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -2117,7 +2122,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -2161,7 +2166,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -2205,7 +2210,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -2249,7 +2254,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>18</v>
       </c>
@@ -2293,7 +2298,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>18</v>
       </c>
@@ -2337,7 +2342,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>18</v>
       </c>
@@ -2381,7 +2386,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -2425,7 +2430,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -2469,7 +2474,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -2513,7 +2518,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>18</v>
       </c>
@@ -2557,7 +2562,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>18</v>
       </c>
@@ -2601,7 +2606,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>18</v>
       </c>
